--- a/data/trans_dic/P1001-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,39; 14,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,97</t>
+          <t>0,97; 4,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,79; 27,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,74</t>
+          <t>2,16; 5,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,92; 19,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,57</t>
+          <t>1,99; 4,45</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,47</t>
+          <t>5,37; 11,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,52</t>
+          <t>8,48; 13,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,55</t>
+          <t>7,62; 11,3</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,8%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,22</t>
+          <t>3,33; 8,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,04</t>
+          <t>6,11; 11,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,58</t>
+          <t>5,44; 8,48</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>7,82%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,92</t>
+          <t>3,49; 8,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,46</t>
+          <t>3,48; 9,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 24,91</t>
+          <t>17,56; 25,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,41</t>
+          <t>5,4; 12,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 16,62</t>
+          <t>11,25; 16,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,4</t>
+          <t>5,65; 10,47</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,49</t>
+          <t>1,62; 5,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 13,04</t>
+          <t>7,33; 13,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,61</t>
+          <t>5,07; 8,59</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,42</t>
+          <t>3,5; 8,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,44</t>
+          <t>6,27; 11,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,92</t>
+          <t>5,5; 8,82</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 12,2</t>
+          <t>6,6; 12,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 16,45</t>
+          <t>5,95; 16,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 13,63</t>
+          <t>6,38; 13,01</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,39</t>
+          <t>1,9; 6,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,9; 18,97</t>
+          <t>13,97; 18,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,63</t>
+          <t>6,13; 11,81</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,13</t>
+          <t>4,65; 6,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,36; 12,72</t>
+          <t>9,0; 12,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,32; 9,82</t>
+          <t>7,07; 9,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1001-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 14,32</t>
+          <t>6,71; 14,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 14,6</t>
+          <t>6,91; 14,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 20,71</t>
+          <t>12,11; 21,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,77</t>
+          <t>1,12; 4,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 16,41</t>
+          <t>8,15; 16,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 27,0</t>
+          <t>16,94; 26,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 31,15</t>
+          <t>20,92; 30,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,8</t>
+          <t>2,21; 5,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,93</t>
+          <t>8,75; 14,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,52</t>
+          <t>12,96; 19,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,92; 24,66</t>
+          <t>17,29; 24,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,45</t>
+          <t>1,91; 4,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,24</t>
+          <t>5,96; 11,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,99</t>
+          <t>5,74; 11,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,7</t>
+          <t>1,64; 4,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,29</t>
+          <t>5,39; 10,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,23</t>
+          <t>12,26; 18,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 18,53</t>
+          <t>11,93; 18,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,19</t>
+          <t>6,92; 12,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,33</t>
+          <t>8,69; 13,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 13,97</t>
+          <t>9,68; 13,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,88</t>
+          <t>9,53; 13,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,02</t>
+          <t>4,8; 7,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,3</t>
+          <t>7,68; 11,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,54</t>
+          <t>1,02; 5,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,24</t>
+          <t>3,28; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,31</t>
+          <t>0,88; 4,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,04</t>
+          <t>3,28; 7,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,49</t>
+          <t>2,11; 6,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 14,74</t>
+          <t>7,83; 14,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,58</t>
+          <t>3,32; 8,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,01</t>
+          <t>6,09; 11,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,6</t>
+          <t>1,93; 4,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,23</t>
+          <t>6,3; 10,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,64</t>
+          <t>2,57; 5,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 8,48</t>
+          <t>5,4; 8,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,9</t>
+          <t>1,25; 4,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,4</t>
+          <t>3,44; 8,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 12,21</t>
+          <t>6,52; 12,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,49</t>
+          <t>3,48; 8,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,82</t>
+          <t>5,28; 11,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 25,72</t>
+          <t>17,1; 25,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 25,35</t>
+          <t>16,39; 25,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,48</t>
+          <t>5,23; 12,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,04</t>
+          <t>3,79; 7,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,26</t>
+          <t>11,31; 16,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,84</t>
+          <t>12,34; 17,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,47</t>
+          <t>5,7; 10,6</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,04</t>
+          <t>3,92; 10,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,78</t>
+          <t>2,39; 8,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,9</t>
+          <t>2,31; 8,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,46</t>
+          <t>1,61; 5,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,85</t>
+          <t>3,98; 12,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,32; 24,16</t>
+          <t>13,23; 24,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,16</t>
+          <t>4,34; 11,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 13,19</t>
+          <t>7,14; 13,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,6</t>
+          <t>4,61; 9,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,23</t>
+          <t>8,83; 15,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,8</t>
+          <t>4,16; 8,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,59</t>
+          <t>5,1; 8,45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,37</t>
+          <t>0,33; 3,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,62</t>
+          <t>5,47; 12,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,16</t>
+          <t>4,41; 11,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,27</t>
+          <t>3,56; 8,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,54</t>
+          <t>2,24; 7,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 15,45</t>
+          <t>7,7; 15,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 19,0</t>
+          <t>9,7; 18,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,43</t>
+          <t>6,27; 11,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,58</t>
+          <t>1,68; 4,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,46</t>
+          <t>7,33; 12,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,94</t>
+          <t>8,16; 14,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,82</t>
+          <t>5,66; 9,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,63</t>
+          <t>4,02; 7,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,17</t>
+          <t>3,52; 7,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,98</t>
+          <t>4,62; 9,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,13</t>
+          <t>6,64; 12,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 12,89</t>
+          <t>8,0; 13,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,43</t>
+          <t>6,11; 10,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,6</t>
+          <t>10,48; 15,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 16,0</t>
+          <t>5,57; 16,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 9,73</t>
+          <t>6,69; 9,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,0</t>
+          <t>5,19; 8,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,58</t>
+          <t>8,25; 11,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,01</t>
+          <t>6,53; 12,82</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,38</t>
+          <t>6,36; 10,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,21</t>
+          <t>6,76; 11,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,69</t>
+          <t>2,9; 5,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,38</t>
+          <t>1,72; 6,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,75; 11,88</t>
+          <t>7,54; 11,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,71</t>
+          <t>13,54; 18,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,35</t>
+          <t>6,01; 9,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,97; 18,9</t>
+          <t>13,73; 18,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,36</t>
+          <t>7,52; 10,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,93; 14,59</t>
+          <t>10,99; 14,58</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,5</t>
+          <t>5,04; 7,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,81</t>
+          <t>5,86; 11,69</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,26; 6,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,18</t>
+          <t>6,24; 8,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,95</t>
+          <t>5,34; 6,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,77</t>
+          <t>4,43; 6,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,38; 10,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,61; 15,89</t>
+          <t>13,51; 15,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,47</t>
+          <t>11,11; 13,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,0; 12,02</t>
+          <t>8,89; 11,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,1; 8,42</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,2; 11,76</t>
+          <t>10,17; 11,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,5; 9,9</t>
+          <t>8,53; 9,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,07; 9,18</t>
+          <t>7,25; 9,2</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27926</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30289</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47670</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7839</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31455</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>61528</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>73729</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10479</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>59380</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>91817</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>121399</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18318</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18326; 39209</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20358; 41851</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35583; 62070</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3473; 14633</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21253; 43543</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>48652; 77436</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60408; 89210</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6402; 16977</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46686; 75679</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75429; 111204</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>100714; 141965</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11509; 26927</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>40752</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40375</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14505</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39737</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75950</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>79265</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49082</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56263</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116703</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>119640</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>63587</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95999</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29387; 55242</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29007; 56273</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8240; 23617</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27957; 55475</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>61797; 93140</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62377; 98897</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36207; 64007</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44760; 70572</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96490; 137630</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>97988; 143055</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>49269; 80362</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>79339; 116884</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7583</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6769</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16146</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12406</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37180</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18651</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29020</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19990</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>53872</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25420</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45165</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3244; 16187</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10617; 27216</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2801; 13431</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10355; 24478</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7080; 20797</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26705; 50520</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11169; 28305</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21217; 38433</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12651; 31720</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41929; 71559</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16835; 37515</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35889; 56802</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9509</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20542</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33683</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18463</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28522</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>82997</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>80242</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43094</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38031</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>103538</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>113926</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61557</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4493; 17523</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12873; 31727</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24111; 45688</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10840; 27824</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19621; 40963</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66499; 98191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>63458; 98561</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24894; 60547</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27702; 51308</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86261; 123696</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>93465; 134237</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44831; 83411</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13379</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10273</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9821</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5528</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14853</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>39743</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16552</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20108</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28232</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>50015</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26373</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>25636</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7965; 21110</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5071; 18067</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4888; 17243</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2873; 10039</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8262; 24965</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29061; 53129</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9481; 25794</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14849; 27137</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18930; 38270</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>38164; 65666</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17871; 36926</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19706; 32667</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3617</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22486</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19179</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>15277</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12514</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>31674</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>38201</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21772</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16131</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>54160</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>57381</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>37049</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>884; 9967</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14938; 33052</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11608; 29889</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9607; 22715</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6234; 20716</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>21552; 44108</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26480; 50813</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16115; 28482</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9224; 24915</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>40556; 67709</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>43752; 76246</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>29804; 47423</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>34719</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>32840</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>42542</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>55664</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>66877</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55947</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>89049</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>98356</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>101595</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>88787</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>131590</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>154020</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24745; 47220</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>23335; 49352</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>30303; 59195</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>41467; 76886</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>51068; 84027</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>42339; 73203</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>72449; 109507</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>47229; 138696</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>83817; 122836</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>70396; 108508</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>111219; 159005</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>96147; 188790</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>60754</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>69166</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>31806</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>40337</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>75699</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>132410</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>66753</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>115910</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>136453</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>201577</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>98558</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>156247</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>47321; 76604</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>52581; 89162</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>22601; 43840</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>16011; 61187</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>59086; 92523</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>111566; 155491</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>49649; 81750</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>98450; 135232</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>114909; 161149</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>175993; 233581</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>80851; 120709</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>96436; 192393</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>198238</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>242663</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>205975</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>198990</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>318275</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>520744</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>432259</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>395001</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>516514</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>763407</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>638234</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>593991</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>172453; 225005</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>213601; 277081</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>181184; 236112</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>153091; 230943</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>283244; 354868</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>480563; 566098</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>393719; 471155</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>325389; 436584</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>472859; 560462</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>709853; 815980</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>592027; 686199</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>516011; 654703</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>